--- a/biology/Zoologie/Calappoidea/Calappoidea.xlsx
+++ b/biology/Zoologie/Calappoidea/Calappoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calappoidea constituent une super-famille de crabes. Elle comprend deux familles.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 février 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 février 2016) :
 famille Calappidae De Haan, 1833 -- 9 genres (« crabes honteux »)
 famille Hepatidae Stimpson, 1871 (vide)
 famille Matutidae De Haan, 1835 -- 4 genres
@@ -548,7 +562,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>de Haan, 1833 : Crustacea. Fauna Japonica sive Descriptio Animalium, Quae in Itinere per Japoniam, Jussu et Auspiciis Superiorum, qui Summum in India Batava Imperium Tenent, Suscepto, Annis 1823–1830 Collegit, Noitis, Observationibus et Adumbrationibus Illustravit. Leiden, Lugduni-Batavorum.  p. 1–243.</t>
         </is>
